--- a/biology/Botanique/Acacallis_(genre)/Acacallis_(genre).xlsx
+++ b/biology/Botanique/Acacallis_(genre)/Acacallis_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acacallis est un genre végétal de la famille des Orchidaceae, sous-famille des Epidendroideae , regroupant plusieurs espèces d'orchidées épiphytes d'Amérique du Sud. Certaines de ces espèces ont été replacées dans le genre Aganisia [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acacallis est un genre végétal de la famille des Orchidaceae, sous-famille des Epidendroideae , regroupant plusieurs espèces d'orchidées épiphytes d'Amérique du Sud. Certaines de ces espèces ont été replacées dans le genre Aganisia .
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les membres de ce genre se rencontrent au Brésil, au Venezuela, au Pérou et en Colombie.
 </t>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom d'Acacallis vient d'Acacallis, princesse de la mythologie grecque, fille de Minos et de Pasiphaé.
 </t>
@@ -573,7 +589,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kochiophyton : Schlechter 1906
 Warreella : Schltr. 1914
@@ -605,7 +623,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Acacallis coerulea (Rchb. f.) Schltr. 1918 (synonyme de Aganisia fimbriata Rchb.f.)
 Acacallis cyanea Lindl. 1853 (Perou; Venezuela) (synonyme de Aganisia cyanea (Lindl.) Rchb.f)
